--- a/project2-analysis.xlsx
+++ b/project2-analysis.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gossip" sheetId="1" r:id="rId1"/>
+    <sheet name="Failure Model" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Line</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Nodes</t>
+  </si>
+  <si>
+    <t>Imperfect 2D</t>
   </si>
 </sst>
 </file>
@@ -77,8 +81,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,38 +201,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Gossip!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -230,39 +225,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:f>Gossip!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32434.0</c:v>
+                  <c:v>586.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3434.0</c:v>
+                  <c:v>872.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,38 +317,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Gossip!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -376,39 +341,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$13</c:f>
+              <c:f>Gossip!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>567.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>1601.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32434.0</c:v>
+                  <c:v>3834.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3434.0</c:v>
+                  <c:v>7162.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,38 +433,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Gossip!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -522,39 +457,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:f>Gossip!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.0</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>385.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>990.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>987.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3434.0</c:v>
+                  <c:v>579.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,38 +556,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Gossip!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -675,39 +580,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$13</c:f>
+              <c:f>Gossip!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.0</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.0</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32434.0</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3434.0</c:v>
+                  <c:v>278.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,11 +612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1124568640"/>
-        <c:axId val="-1131022160"/>
+        <c:axId val="-1097458112"/>
+        <c:axId val="-1097454384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1124568640"/>
+        <c:axId val="-1097458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,12 +717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131022160"/>
+        <c:crossAx val="-1097454384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1131022160"/>
+        <c:axId val="-1097454384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1124568640"/>
+        <c:crossAx val="-1097458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,6 +936,1898 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Full Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$C$18:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$D$18:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$E$18:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1096302096"/>
+        <c:axId val="-1171882416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1096302096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1171882416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1171882416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1096302096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$H$18:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$I$18:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$J$18:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1090758768"/>
+        <c:axId val="-1056411520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1090758768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1056411520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1056411520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1090758768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 2D Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1090641712"/>
+        <c:axId val="-1090639936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1090641712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1090639936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1090639936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1090641712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Imp 2D Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$26:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$H$26:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$26:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$I$26:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$26:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$J$26:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1056243360"/>
+        <c:axId val="-1056241312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1056243360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1056241312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1056241312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1056243360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1083,6 +2865,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1579,6 +3521,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1586,12 +5540,12 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1606,6 +5560,137 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>55033</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>46567</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1877,199 +5962,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>34</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>34</v>
+      <c r="C4" s="1">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
-      <c r="F5">
-        <v>34</v>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1">
+        <v>567</v>
+      </c>
+      <c r="E5" s="1">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>98</v>
-      </c>
-      <c r="F6">
-        <v>34</v>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>268</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1601</v>
+      </c>
+      <c r="E6" s="1">
+        <v>264</v>
+      </c>
+      <c r="F6" s="1">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>400</v>
-      </c>
-      <c r="C7">
-        <v>32434</v>
-      </c>
-      <c r="D7">
-        <v>32434</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>32434</v>
+      <c r="B7" s="1">
+        <v>800</v>
+      </c>
+      <c r="C7" s="1">
+        <v>586</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3834</v>
+      </c>
+      <c r="E7" s="1">
+        <v>385</v>
+      </c>
+      <c r="F7" s="1">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="C8">
-        <v>234</v>
-      </c>
-      <c r="D8">
-        <v>234</v>
-      </c>
-      <c r="E8">
-        <v>234</v>
-      </c>
-      <c r="F8">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>600</v>
-      </c>
-      <c r="C9">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>990</v>
-      </c>
-      <c r="F9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>700</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>43</v>
-      </c>
-      <c r="E10">
-        <v>987</v>
-      </c>
-      <c r="F10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>800</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>32</v>
-      </c>
-      <c r="E11">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>900</v>
-      </c>
-      <c r="C12">
-        <v>233</v>
-      </c>
-      <c r="D12">
-        <v>233</v>
-      </c>
-      <c r="E12">
-        <v>233</v>
-      </c>
-      <c r="F12">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C13">
-        <v>3434</v>
-      </c>
-      <c r="D13">
-        <v>3434</v>
-      </c>
-      <c r="E13">
-        <v>3434</v>
-      </c>
-      <c r="F13">
-        <v>3434</v>
+      <c r="C8" s="1">
+        <v>872</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7162</v>
+      </c>
+      <c r="E8" s="1">
+        <v>579</v>
+      </c>
+      <c r="F8" s="1">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2077,4 +6084,383 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B16:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1">
+        <v>97</v>
+      </c>
+      <c r="D18" s="1">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>98</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+      <c r="C19" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="D19" s="1">
+        <v>88.67</v>
+      </c>
+      <c r="E19" s="1">
+        <v>79.33</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>300</v>
+      </c>
+      <c r="H19" s="1">
+        <v>99.66</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>98.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>500</v>
+      </c>
+      <c r="H20" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>800</v>
+      </c>
+      <c r="C21" s="1">
+        <v>99.62</v>
+      </c>
+      <c r="D21" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="E21" s="1">
+        <v>79.125</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>800</v>
+      </c>
+      <c r="H21" s="1">
+        <v>99.875</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1.125</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99.3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>98</v>
+      </c>
+      <c r="I26" s="1">
+        <v>88</v>
+      </c>
+      <c r="J26" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1">
+        <v>98.66</v>
+      </c>
+      <c r="D27" s="1">
+        <v>89.33</v>
+      </c>
+      <c r="E27" s="1">
+        <v>78.33</v>
+      </c>
+      <c r="G27" s="1">
+        <v>300</v>
+      </c>
+      <c r="H27" s="1">
+        <v>98</v>
+      </c>
+      <c r="I27" s="1">
+        <v>85.67</v>
+      </c>
+      <c r="J27" s="1">
+        <v>77.33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>500</v>
+      </c>
+      <c r="C28" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>88.6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G28" s="1">
+        <v>500</v>
+      </c>
+      <c r="H28" s="1">
+        <v>97.6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>88.8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>800</v>
+      </c>
+      <c r="C29" s="1">
+        <v>99.25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>89.25</v>
+      </c>
+      <c r="E29" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>800</v>
+      </c>
+      <c r="H29" s="1">
+        <v>97.75</v>
+      </c>
+      <c r="I29" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>99.3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>98.1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>88.9</v>
+      </c>
+      <c r="J30" s="1">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project2-analysis.xlsx
+++ b/project2-analysis.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Gossip" sheetId="1" r:id="rId1"/>
     <sheet name="Failure Model" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Line</t>
   </si>
@@ -81,12 +84,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -95,6 +101,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF840001"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,11 +623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1097458112"/>
-        <c:axId val="-1097454384"/>
+        <c:axId val="-1053295648"/>
+        <c:axId val="-1053292016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1097458112"/>
+        <c:axId val="-1053295648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,12 +728,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097454384"/>
+        <c:crossAx val="-1053292016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1097454384"/>
+        <c:axId val="-1053292016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +847,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097458112"/>
+        <c:crossAx val="-1053295648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -950,88 +961,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Full Spread %</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110390118051755"/>
+          <c:y val="0.213370901639344"/>
+          <c:w val="0.889570791963099"/>
+          <c:h val="0.699965846994536"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>0</c:v>
+            <c:v>Full</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:f>Gossip!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1052,51 +1044,80 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Failure Model'!$C$18:$C$22</c:f>
+              <c:f>Gossip!$C$16:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>97.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.66</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.2</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.62</c:v>
+                  <c:v>488.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.3</c:v>
+                  <c:v>716.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>10%</c:v>
+            <c:v>Line</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:f>Gossip!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1117,51 +1138,80 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Failure Model'!$D$18:$D$22</c:f>
+              <c:f>Gossip!$D$16:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>88.0</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.67</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.6</c:v>
+                  <c:v>1603.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.62</c:v>
+                  <c:v>5308.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.1</c:v>
+                  <c:v>10383.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>20%</c:v>
+            <c:v>2D</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Failure Model'!$B$18:$B$22</c:f>
+              <c:f>Gossip!$B$16:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1182,31 +1232,126 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Failure Model'!$E$18:$E$22</c:f>
+              <c:f>Gossip!$E$16:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>80.0</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.33</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.6</c:v>
+                  <c:v>368.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.125</c:v>
+                  <c:v>504.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.7</c:v>
+                  <c:v>595.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Imp2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="840001"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1216,19 +1361,86 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1096302096"/>
-        <c:axId val="-1171882416"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1096302096"/>
+        <c:axId val="-1128803536"/>
+        <c:axId val="-1097971648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1128803536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1236,9 +1448,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1252,9 +1463,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1265,18 +1475,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1171882416"/>
+        <c:crossAx val="-1097971648"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="-1171882416"/>
+        <c:axId val="-1097971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
+          <c:max val="8000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1284,9 +1491,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1294,15 +1502,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Convergence time in   milliseconds
+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1313,9 +1580,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1326,9 +1592,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096302096"/>
+        <c:crossAx val="-1128803536"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1605,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1356,9 +1622,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1370,17 +1635,20 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1442,20 +1710,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Line</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Spread %</a:t>
+              <a:t> Full Spread %</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1510,7 +1769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1534,24 +1793,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$H$18:$H$22</c:f>
+              <c:f>'Failure Model'!$C$18:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98.0</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>99.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.8</c:v>
+                  <c:v>98.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.875</c:v>
+                  <c:v>99.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.8</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,7 +1834,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1599,24 +1858,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$I$18:$I$22</c:f>
+              <c:f>'Failure Model'!$D$18:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.33</c:v>
+                  <c:v>88.67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>89.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.125</c:v>
+                  <c:v>89.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +1899,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:f>'Failure Model'!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1664,24 +1923,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$J$18:$J$22</c:f>
+              <c:f>'Failure Model'!$E$18:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.66</c:v>
+                  <c:v>79.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>79.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,11 +1956,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1090758768"/>
-        <c:axId val="-1056411520"/>
+        <c:axId val="-1053747440"/>
+        <c:axId val="-1053608496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1090758768"/>
+        <c:axId val="-1053747440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +2003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056411520"/>
+        <c:crossAx val="-1053608496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +2011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1056411520"/>
+        <c:axId val="-1053608496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1805,7 +2064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090758768"/>
+        <c:crossAx val="-1053747440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,7 +2078,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1921,12 +2179,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> 2D Spread %</a:t>
+              <a:t> Line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spread %</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1981,7 +2246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2005,7 +2270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$C$26:$C$30</c:f>
+              <c:f>'Failure Model'!$H$18:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2013,16 +2278,16 @@
                   <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.66</c:v>
+                  <c:v>99.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.4</c:v>
+                  <c:v>99.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.25</c:v>
+                  <c:v>99.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.3</c:v>
+                  <c:v>56.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,7 +2311,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2070,24 +2335,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$D$26:$D$30</c:f>
+              <c:f>'Failure Model'!$I$18:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>89.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.33</c:v>
+                  <c:v>8.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.6</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89.25</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2135,24 +2400,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Failure Model'!$E$26:$E$30</c:f>
+              <c:f>'Failure Model'!$J$18:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.33</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.6</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.5</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,11 +2433,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1090641712"/>
-        <c:axId val="-1090639936"/>
+        <c:axId val="-1051447024"/>
+        <c:axId val="-1051444704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1090641712"/>
+        <c:axId val="-1051447024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090639936"/>
+        <c:crossAx val="-1051444704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1090639936"/>
+        <c:axId val="-1051444704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2276,7 +2541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090641712"/>
+        <c:crossAx val="-1051447024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2290,7 +2555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2392,12 +2656,480 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t> 2D Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1051139696"/>
+        <c:axId val="-1051137376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1051139696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1051137376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1051137376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1051139696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t> Imp 2D Spread %</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2639,11 +3371,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1056243360"/>
-        <c:axId val="-1056241312"/>
+        <c:axId val="-1051106496"/>
+        <c:axId val="-1091037104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1056243360"/>
+        <c:axId val="-1051106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +3418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056241312"/>
+        <c:crossAx val="-1091037104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2694,7 +3426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1056241312"/>
+        <c:axId val="-1091037104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2747,7 +3479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056243360"/>
+        <c:crossAx val="-1051106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2761,7 +3493,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3025,6 +3756,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3522,6 +4293,544 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4024,7 +5333,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4527,7 +5836,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5030,7 +6339,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5537,16 +6846,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5560,6 +6869,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5699,6 +7040,107 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Gossip"/>
+      <sheetName val="Failure Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="B4">
+            <v>100</v>
+          </cell>
+          <cell r="C4">
+            <v>41</v>
+          </cell>
+          <cell r="D4">
+            <v>104</v>
+          </cell>
+          <cell r="E4">
+            <v>49</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>300</v>
+          </cell>
+          <cell r="C5">
+            <v>65</v>
+          </cell>
+          <cell r="D5">
+            <v>560</v>
+          </cell>
+          <cell r="E5">
+            <v>83</v>
+          </cell>
+          <cell r="F5">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>500</v>
+          </cell>
+          <cell r="C6">
+            <v>340</v>
+          </cell>
+          <cell r="D6">
+            <v>1603</v>
+          </cell>
+          <cell r="E6">
+            <v>368</v>
+          </cell>
+          <cell r="F6">
+            <v>142</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>800</v>
+          </cell>
+          <cell r="C7">
+            <v>488</v>
+          </cell>
+          <cell r="D7">
+            <v>5308</v>
+          </cell>
+          <cell r="E7">
+            <v>504</v>
+          </cell>
+          <cell r="F7">
+            <v>125</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>1000</v>
+          </cell>
+          <cell r="C8">
+            <v>716</v>
+          </cell>
+          <cell r="D8">
+            <v>10383</v>
+          </cell>
+          <cell r="E8">
+            <v>595</v>
+          </cell>
+          <cell r="F8">
+            <v>295</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5962,10 +7404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6077,6 +7519,115 @@
       </c>
       <c r="F8" s="1">
         <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>300</v>
+      </c>
+      <c r="C17" s="3">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3">
+        <v>560</v>
+      </c>
+      <c r="E17" s="3">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>500</v>
+      </c>
+      <c r="C18" s="3">
+        <v>340</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1603</v>
+      </c>
+      <c r="E18" s="3">
+        <v>368</v>
+      </c>
+      <c r="F18" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>800</v>
+      </c>
+      <c r="C19" s="3">
+        <v>488</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5308</v>
+      </c>
+      <c r="E19" s="3">
+        <v>504</v>
+      </c>
+      <c r="F19" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>716</v>
+      </c>
+      <c r="D20" s="3">
+        <v>10383</v>
+      </c>
+      <c r="E20" s="3">
+        <v>595</v>
+      </c>
+      <c r="F20" s="3">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/project2-analysis.xlsx
+++ b/project2-analysis.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Gossip" sheetId="1" r:id="rId1"/>
     <sheet name="Failure Model" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -89,10 +86,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1053295648"/>
-        <c:axId val="-1053292016"/>
+        <c:axId val="-1053213888"/>
+        <c:axId val="-1053697088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1053295648"/>
+        <c:axId val="-1053213888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,12 +725,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053292016"/>
+        <c:crossAx val="-1053697088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1053292016"/>
+        <c:axId val="-1053697088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053295648"/>
+        <c:crossAx val="-1053213888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1361,11 +1358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1128803536"/>
-        <c:axId val="-1097971648"/>
+        <c:axId val="-1053435904"/>
+        <c:axId val="-1053432960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1128803536"/>
+        <c:axId val="-1053435904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1386,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1421,7 +1418,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1475,12 +1472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097971648"/>
+        <c:crossAx val="-1053432960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1097971648"/>
+        <c:axId val="-1053432960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -1505,7 +1502,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1538,7 +1535,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1592,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1128803536"/>
+        <c:crossAx val="-1053435904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1956,11 +1953,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1053747440"/>
-        <c:axId val="-1053608496"/>
+        <c:axId val="-1050266464"/>
+        <c:axId val="-1050264144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1053747440"/>
+        <c:axId val="-1050266464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053608496"/>
+        <c:crossAx val="-1050264144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1053608496"/>
+        <c:axId val="-1050264144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2064,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053747440"/>
+        <c:crossAx val="-1050266464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2433,11 +2430,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1051447024"/>
-        <c:axId val="-1051444704"/>
+        <c:axId val="-1053004432"/>
+        <c:axId val="-1053252352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1051447024"/>
+        <c:axId val="-1053004432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051444704"/>
+        <c:crossAx val="-1053252352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1051444704"/>
+        <c:axId val="-1053252352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2541,7 +2538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051447024"/>
+        <c:crossAx val="-1053004432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2902,11 +2899,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1051139696"/>
-        <c:axId val="-1051137376"/>
+        <c:axId val="-1053047728"/>
+        <c:axId val="-1053045408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1051139696"/>
+        <c:axId val="-1053047728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051137376"/>
+        <c:crossAx val="-1053045408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2957,7 +2954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1051137376"/>
+        <c:axId val="-1053045408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3010,7 +3007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051139696"/>
+        <c:crossAx val="-1053047728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3371,11 +3368,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1051106496"/>
-        <c:axId val="-1091037104"/>
+        <c:axId val="-1053001984"/>
+        <c:axId val="-1053000208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1051106496"/>
+        <c:axId val="-1053001984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,7 +3415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1091037104"/>
+        <c:crossAx val="-1053000208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3426,7 +3423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1091037104"/>
+        <c:axId val="-1053000208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3479,7 +3476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051106496"/>
+        <c:crossAx val="-1053001984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6846,16 +6843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6877,15 +6874,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7040,107 +7037,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Gossip"/>
-      <sheetName val="Failure Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="B4">
-            <v>100</v>
-          </cell>
-          <cell r="C4">
-            <v>41</v>
-          </cell>
-          <cell r="D4">
-            <v>104</v>
-          </cell>
-          <cell r="E4">
-            <v>49</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>300</v>
-          </cell>
-          <cell r="C5">
-            <v>65</v>
-          </cell>
-          <cell r="D5">
-            <v>560</v>
-          </cell>
-          <cell r="E5">
-            <v>83</v>
-          </cell>
-          <cell r="F5">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>500</v>
-          </cell>
-          <cell r="C6">
-            <v>340</v>
-          </cell>
-          <cell r="D6">
-            <v>1603</v>
-          </cell>
-          <cell r="E6">
-            <v>368</v>
-          </cell>
-          <cell r="F6">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>800</v>
-          </cell>
-          <cell r="C7">
-            <v>488</v>
-          </cell>
-          <cell r="D7">
-            <v>5308</v>
-          </cell>
-          <cell r="E7">
-            <v>504</v>
-          </cell>
-          <cell r="F7">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1000</v>
-          </cell>
-          <cell r="C8">
-            <v>716</v>
-          </cell>
-          <cell r="D8">
-            <v>10383</v>
-          </cell>
-          <cell r="E8">
-            <v>595</v>
-          </cell>
-          <cell r="F8">
-            <v>295</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7522,111 +7418,111 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>100</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>41</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>104</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>49</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>300</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>65</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>560</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>83</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>500</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>340</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1603</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>368</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>800</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>488</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>5308</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>504</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1000</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>716</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>10383</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>595</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>295</v>
       </c>
     </row>
@@ -7648,18 +7544,18 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -7835,18 +7731,18 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">

--- a/project2-analysis.xlsx
+++ b/project2-analysis.xlsx
@@ -620,11 +620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1053213888"/>
-        <c:axId val="-1053697088"/>
+        <c:axId val="-1051353760"/>
+        <c:axId val="-1051338992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1053213888"/>
+        <c:axId val="-1051353760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,12 +725,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053697088"/>
+        <c:crossAx val="-1051338992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1053697088"/>
+        <c:axId val="-1051338992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053213888"/>
+        <c:crossAx val="-1051353760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -975,8 +975,390 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1603.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5308.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10383.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Imp2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="840001"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>Full</c:v>
           </c:tx>
@@ -1070,7 +1452,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>Line</c:v>
           </c:tx>
@@ -1164,7 +1546,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="6"/>
           <c:tx>
             <c:v>2D</c:v>
           </c:tx>
@@ -1258,7 +1640,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="7"/>
           <c:tx>
             <c:v>Imp2D</c:v>
           </c:tx>
@@ -1358,11 +1740,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1053435904"/>
-        <c:axId val="-1053432960"/>
+        <c:axId val="-1097113360"/>
+        <c:axId val="-1097123184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1053435904"/>
+        <c:axId val="-1097113360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,12 +1854,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053432960"/>
+        <c:crossAx val="-1097123184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1053432960"/>
+        <c:axId val="-1097123184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -1589,7 +1971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053435904"/>
+        <c:crossAx val="-1097113360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1673,6 +2055,1951 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110390118051755"/>
+          <c:y val="0.213370901639344"/>
+          <c:w val="0.889570791963099"/>
+          <c:h val="0.699965846994536"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1603.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5308.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10383.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Imp2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="840001"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>716.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1603.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5308.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10383.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Imp2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="840001"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1096835872"/>
+        <c:axId val="-1096851312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1096835872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1096851312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1096851312"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Convergence time in   milliseconds
+</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1096835872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110386482939633"/>
+          <c:y val="0.21337962962963"/>
+          <c:w val="0.889613517060367"/>
+          <c:h val="0.700054316127151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Full</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>586.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1601.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3834.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7162.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>imp2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gossip!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gossip!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>278.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1091116512"/>
+        <c:axId val="-1128343392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1091116512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1128343392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1128343392"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Convergence</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time in   milliseconds</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1091116512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.861019332161687"/>
+          <c:y val="0.0702730442276805"/>
+          <c:w val="0.0985588752196836"/>
+          <c:h val="0.187812120499863"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1953,11 +4280,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1050266464"/>
-        <c:axId val="-1050264144"/>
+        <c:axId val="-1051292800"/>
+        <c:axId val="-1051290480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1050266464"/>
+        <c:axId val="-1051292800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +4327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050264144"/>
+        <c:crossAx val="-1051290480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +4335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1050264144"/>
+        <c:axId val="-1051290480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2061,953 +4388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050266464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> Line</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Spread %</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$H$18:$H$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>10%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$I$18:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>20%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$G$18:$G$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$J$18:$J$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1053004432"/>
-        <c:axId val="-1053252352"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1053004432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1053252352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1053252352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1053004432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> 2D Spread %</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>0</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$C$26:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>10%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$D$26:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>89.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>20%</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Failure Model'!$B$26:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Failure Model'!$E$26:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>78.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>79.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>78.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1053047728"/>
-        <c:axId val="-1053045408"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1053047728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1053045408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1053045408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1053047728"/>
+        <c:crossAx val="-1051292800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,6 +4503,952 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t> Line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$H$18:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$I$18:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$G$18:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$J$18:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1125382064"/>
+        <c:axId val="-1266845584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1125382064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1266845584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1266845584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1125382064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 2D Spread %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Failure Model'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Failure Model'!$E$26:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1050400880"/>
+        <c:axId val="-1050202240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1050400880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1050202240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1050202240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1050400880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t> Imp 2D Spread %</a:t>
             </a:r>
           </a:p>
@@ -3368,11 +5695,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1053001984"/>
-        <c:axId val="-1053000208"/>
+        <c:axId val="-1090689184"/>
+        <c:axId val="-1090618560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1053001984"/>
+        <c:axId val="-1090689184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +5742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053000208"/>
+        <c:crossAx val="-1090618560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3423,7 +5750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1053000208"/>
+        <c:axId val="-1090618560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3476,7 +5803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1053001984"/>
+        <c:crossAx val="-1090689184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3674,12 +6001,9 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3793,6 +6117,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -4828,6 +7232,1040 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5330,7 +8768,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5833,7 +9271,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6336,7 +9774,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6844,15 +10282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6898,6 +10336,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7303,7 +10805,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/project2-analysis.xlsx
+++ b/project2-analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Gossip" sheetId="1" r:id="rId1"/>
@@ -148,62 +148,40 @@
             <c:v>Full</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -264,62 +242,40 @@
             <c:v>Line</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -380,62 +336,40 @@
             <c:v>2D</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -496,69 +430,45 @@
             <c:v>imp2D</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -620,16 +530,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1051353760"/>
-        <c:axId val="-1051338992"/>
+        <c:axId val="-1051411536"/>
+        <c:axId val="-1051408896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1051353760"/>
+        <c:axId val="-1051411536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -637,10 +562,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -650,13 +575,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of nodes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -674,10 +594,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -698,8 +618,7 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -714,7 +633,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -725,12 +644,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051338992"/>
+        <c:crossAx val="-1051408896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1051338992"/>
+        <c:axId val="-1051408896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,9 +659,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -757,10 +677,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -770,11 +690,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Convergence</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time in   milliseconds</a:t>
+                  <a:t>Convergence time in   milliseconds</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -799,10 +715,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -820,8 +736,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -833,7 +754,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -844,7 +765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051353760"/>
+        <c:crossAx val="-1051411536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -857,17 +778,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.861019332161687"/>
-          <c:y val="0.0702730442276805"/>
-          <c:w val="0.0985588752196836"/>
-          <c:h val="0.187812120499863"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,7 +796,7 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -901,28 +813,20 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -965,8 +869,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110390118051755"/>
-          <c:y val="0.213370901639344"/>
+          <c:x val="0.0738644568992195"/>
+          <c:y val="0.235522774843018"/>
           <c:w val="0.889570791963099"/>
           <c:h val="0.699965846994536"/>
         </c:manualLayout>
@@ -1356,382 +1260,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Full</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$C$16:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>340.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>716.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Line</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$D$16:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1603.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5308.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10383.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>2D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$E$16:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>368.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>504.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>595.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Imp2D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="840001"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$F$16:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>295.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1740,11 +1268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1097113360"/>
-        <c:axId val="-1097123184"/>
+        <c:axId val="-1053293424"/>
+        <c:axId val="-1053290208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1097113360"/>
+        <c:axId val="-1053293424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,12 +1382,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097123184"/>
+        <c:crossAx val="-1053290208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1097123184"/>
+        <c:axId val="-1053290208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000.0"/>
@@ -1971,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1097113360"/>
+        <c:crossAx val="-1053293424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2466,382 +1994,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Full</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$C$16:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>340.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>488.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>716.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Line</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$D$16:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>560.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1603.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5308.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10383.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>2D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$E$16:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>368.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>504.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>595.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Imp2D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="840001"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Gossip!$B$16:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Gossip!$F$16:$F$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>295.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2850,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1096835872"/>
-        <c:axId val="-1096851312"/>
+        <c:axId val="-1052794192"/>
+        <c:axId val="-1153036576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1096835872"/>
+        <c:axId val="-1052794192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,12 +2116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096851312"/>
+        <c:crossAx val="-1153036576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1096851312"/>
+        <c:axId val="-1153036576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3012,7 +2164,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Convergence time in   milliseconds
+                  <a:t>Log (Convergence time in   milliseconds
 </a:t>
                 </a:r>
               </a:p>
@@ -3082,7 +2234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1096835872"/>
+        <c:crossAx val="-1052794192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3202,62 +2354,40 @@
             <c:v>Full</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -3318,62 +2448,40 @@
             <c:v>Line</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -3434,62 +2542,40 @@
             <c:v>2D</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:round/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -3550,69 +2636,45 @@
             <c:v>imp2D</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:size val="3"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
+                </a:glow>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -3674,16 +2736,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1091116512"/>
-        <c:axId val="-1128343392"/>
+        <c:axId val="-1149961424"/>
+        <c:axId val="-1090725616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1091116512"/>
+        <c:axId val="-1149961424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3691,10 +2768,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3704,13 +2781,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Number of nodes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3728,10 +2800,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3752,8 +2824,7 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3768,7 +2839,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3779,12 +2850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1128343392"/>
+        <c:crossAx val="-1090725616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1128343392"/>
+        <c:axId val="-1090725616"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3795,9 +2866,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3812,10 +2884,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -3825,22 +2897,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Convergence</a:t>
+                  <a:t>Log( Convergence time in   milliseconds)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time in   milliseconds</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0149700598802395"/>
+              <c:y val="0.438011993856805"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3854,10 +2923,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -3875,8 +2944,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3888,7 +2962,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3899,7 +2973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1091116512"/>
+        <c:crossAx val="-1149961424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3912,17 +2986,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.861019332161687"/>
-          <c:y val="0.0702730442276805"/>
-          <c:w val="0.0985588752196836"/>
-          <c:h val="0.187812120499863"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3939,7 +3004,7 @@
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3956,28 +3021,20 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4280,11 +3337,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1051292800"/>
-        <c:axId val="-1051290480"/>
+        <c:axId val="-1053181456"/>
+        <c:axId val="-1053182768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1051292800"/>
+        <c:axId val="-1053181456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +3384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051290480"/>
+        <c:crossAx val="-1053182768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4335,7 +3392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1051290480"/>
+        <c:axId val="-1053182768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4388,7 +3445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051292800"/>
+        <c:crossAx val="-1053181456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4757,11 +3814,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1125382064"/>
-        <c:axId val="-1266845584"/>
+        <c:axId val="-1052958224"/>
+        <c:axId val="-1052956176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1125382064"/>
+        <c:axId val="-1052958224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +3861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266845584"/>
+        <c:crossAx val="-1052956176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4812,7 +3869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1266845584"/>
+        <c:axId val="-1052956176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -4865,7 +3922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1125382064"/>
+        <c:crossAx val="-1052958224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5226,11 +4283,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1050400880"/>
-        <c:axId val="-1050202240"/>
+        <c:axId val="-1131726928"/>
+        <c:axId val="-1053714480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1050400880"/>
+        <c:axId val="-1131726928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5273,7 +4330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050202240"/>
+        <c:crossAx val="-1053714480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5281,7 +4338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1050202240"/>
+        <c:axId val="-1053714480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5334,7 +4391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1050400880"/>
+        <c:crossAx val="-1131726928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5695,11 +4752,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1090689184"/>
-        <c:axId val="-1090618560"/>
+        <c:axId val="-1090775040"/>
+        <c:axId val="-1090772992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1090689184"/>
+        <c:axId val="-1090775040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5742,7 +4799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090618560"/>
+        <c:crossAx val="-1090772992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5750,7 +4807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1090618560"/>
+        <c:axId val="-1090772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -5803,7 +4860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1090689184"/>
+        <c:crossAx val="-1090775040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6198,502 +5255,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7231,7 +5792,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7769,18 +6330,18 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7788,20 +6349,9 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -7812,28 +6362,23 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7841,7 +6386,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7851,14 +6396,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7867,72 +6415,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7944,6 +6551,227 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7952,24 +6780,124 @@
         <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7978,13 +6906,230 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7993,17 +7138,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -8012,13 +7156,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8030,7 +7174,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -8043,9 +7187,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8060,13 +7205,15 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8075,17 +7222,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -8094,20 +7240,76 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8116,83 +7318,7 @@
         <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8201,12 +7327,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -8217,7 +7345,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8227,19 +7355,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8249,17 +7379,28 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -10281,16 +9422,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10311,16 +9452,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10344,15 +9485,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10375,16 +9516,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10804,8 +9945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
